--- a/orthofinder_1/Results_Sep02/Orthogroups/20240903_Orthogroups_adapted for analysis and columns rearranged.xlsx
+++ b/orthofinder_1/Results_Sep02/Orthogroups/20240903_Orthogroups_adapted for analysis and columns rearranged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/2024_Orthofinder Results/Results_Sep02/Orthogroups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/orthofinder_1/Results_Sep02/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{C2B27E88-9E73-45F0-9FA6-A9F7883AFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8977B297-76AE-4698-A391-01F374CE7CDC}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{C2B27E88-9E73-45F0-9FA6-A9F7883AFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68FFB63-C15C-4083-BA80-3E2D701ACB34}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7B47756-DA39-4252-B20E-E01940EF4304}"/>
+    <workbookView minimized="1" xWindow="1044" yWindow="2808" windowWidth="17280" windowHeight="10044" xr2:uid="{C7B47756-DA39-4252-B20E-E01940EF4304}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -7991,68 +7991,70 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T61" sqref="T61"/>
+      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="5" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.5703125" customWidth="1"/>
-    <col min="7" max="7" width="65.140625" customWidth="1"/>
-    <col min="8" max="8" width="105.85546875" customWidth="1"/>
-    <col min="9" max="9" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.28515625" customWidth="1"/>
-    <col min="11" max="11" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.140625" customWidth="1"/>
-    <col min="13" max="13" width="71.5703125" customWidth="1"/>
-    <col min="14" max="14" width="86.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" customWidth="1"/>
+    <col min="3" max="5" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.5546875" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" customWidth="1"/>
+    <col min="8" max="8" width="105.88671875" customWidth="1"/>
+    <col min="9" max="9" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.33203125" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="58.109375" customWidth="1"/>
+    <col min="13" max="13" width="71.5546875" customWidth="1"/>
+    <col min="14" max="14" width="86.88671875" customWidth="1"/>
     <col min="15" max="15" width="47" customWidth="1"/>
-    <col min="16" max="16" width="74.7109375" customWidth="1"/>
-    <col min="17" max="17" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" customWidth="1"/>
-    <col min="19" max="19" width="103.5703125" customWidth="1"/>
-    <col min="20" max="20" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="56.140625" customWidth="1"/>
-    <col min="22" max="22" width="83.28515625" customWidth="1"/>
-    <col min="23" max="23" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="58.42578125" customWidth="1"/>
-    <col min="27" max="27" width="88.5703125" customWidth="1"/>
-    <col min="28" max="29" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="66.42578125" customWidth="1"/>
-    <col min="31" max="31" width="46.7109375" customWidth="1"/>
-    <col min="32" max="32" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="43.28515625" customWidth="1"/>
-    <col min="38" max="39" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="46.140625" customWidth="1"/>
-    <col min="41" max="41" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="74.5703125" customWidth="1"/>
-    <col min="43" max="43" width="53.28515625" customWidth="1"/>
-    <col min="44" max="44" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="86.7109375" customWidth="1"/>
-    <col min="46" max="47" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="59" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="82.42578125" customWidth="1"/>
-    <col min="61" max="62" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="55.28515625" customWidth="1"/>
-    <col min="64" max="65" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="47.5703125" customWidth="1"/>
-    <col min="67" max="67" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.6640625" customWidth="1"/>
+    <col min="17" max="17" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" customWidth="1"/>
+    <col min="19" max="19" width="103.5546875" customWidth="1"/>
+    <col min="20" max="20" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="56.109375" customWidth="1"/>
+    <col min="22" max="22" width="83.33203125" customWidth="1"/>
+    <col min="23" max="23" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="58.44140625" customWidth="1"/>
+    <col min="27" max="27" width="88.5546875" customWidth="1"/>
+    <col min="28" max="29" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="66.44140625" customWidth="1"/>
+    <col min="31" max="31" width="46.6640625" customWidth="1"/>
+    <col min="32" max="32" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" customWidth="1"/>
+    <col min="34" max="34" width="27.5546875" customWidth="1"/>
+    <col min="36" max="36" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="43.33203125" customWidth="1"/>
+    <col min="38" max="39" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="46.109375" customWidth="1"/>
+    <col min="41" max="41" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="74.5546875" customWidth="1"/>
+    <col min="43" max="43" width="53.33203125" customWidth="1"/>
+    <col min="44" max="44" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="86.6640625" customWidth="1"/>
+    <col min="46" max="47" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="59" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="82.44140625" customWidth="1"/>
+    <col min="61" max="62" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="55.33203125" customWidth="1"/>
+    <col min="64" max="65" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="47.5546875" customWidth="1"/>
+    <col min="67" max="67" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="80.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8308,7 +8310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -8820,7 +8822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -9460,7 +9462,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -9844,7 +9846,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -9972,7 +9974,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>278</v>
       </c>
@@ -10100,7 +10102,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -10228,7 +10230,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>314</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>332</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>350</v>
       </c>
@@ -10612,7 +10614,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>368</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -10868,7 +10870,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>403</v>
       </c>
@@ -10996,7 +10998,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>420</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -11250,7 +11252,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>453</v>
       </c>
@@ -11378,7 +11380,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>471</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>479</v>
       </c>
@@ -11634,7 +11636,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>491</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>503</v>
       </c>
@@ -11890,7 +11892,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>515</v>
       </c>
@@ -12018,7 +12020,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>523</v>
       </c>
@@ -12146,7 +12148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>534</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>543</v>
       </c>
@@ -12402,7 +12404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>551</v>
       </c>
@@ -12530,7 +12532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>559</v>
       </c>
@@ -12658,7 +12660,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>567</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>575</v>
       </c>
@@ -12914,7 +12916,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>583</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>591</v>
       </c>
@@ -13170,7 +13172,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>599</v>
       </c>
@@ -13298,7 +13300,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>607</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>615</v>
       </c>
@@ -13554,7 +13556,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>623</v>
       </c>
@@ -13682,7 +13684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>631</v>
       </c>
@@ -13810,7 +13812,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>639</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>647</v>
       </c>
@@ -14066,7 +14068,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -14194,7 +14196,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>663</v>
       </c>
@@ -14322,7 +14324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>671</v>
       </c>
@@ -14450,7 +14452,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>679</v>
       </c>
@@ -14578,7 +14580,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>687</v>
       </c>
@@ -14706,7 +14708,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>695</v>
       </c>
@@ -14834,7 +14836,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>703</v>
       </c>
@@ -14962,7 +14964,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>711</v>
       </c>
@@ -15090,7 +15092,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>719</v>
       </c>
@@ -15218,7 +15220,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>727</v>
       </c>
@@ -15346,7 +15348,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>735</v>
       </c>
@@ -15474,7 +15476,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>743</v>
       </c>
@@ -15602,7 +15604,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>751</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>758</v>
       </c>
@@ -15858,7 +15860,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>765</v>
       </c>
@@ -15986,7 +15988,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>773</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>781</v>
       </c>
@@ -16242,7 +16244,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>789</v>
       </c>
@@ -16370,7 +16372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>796</v>
       </c>
@@ -16498,7 +16500,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>804</v>
       </c>
@@ -16626,7 +16628,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>810</v>
       </c>
@@ -16754,7 +16756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>816</v>
       </c>
@@ -16882,7 +16884,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>824</v>
       </c>
@@ -17010,7 +17012,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>831</v>
       </c>
@@ -17138,7 +17140,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>837</v>
       </c>
@@ -17266,7 +17268,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>844</v>
       </c>
@@ -17394,7 +17396,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>851</v>
       </c>
@@ -17522,7 +17524,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>858</v>
       </c>
@@ -17650,7 +17652,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>865</v>
       </c>
@@ -17778,7 +17780,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>872</v>
       </c>
@@ -17906,7 +17908,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>879</v>
       </c>
@@ -18034,7 +18036,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>886</v>
       </c>
@@ -18162,7 +18164,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>893</v>
       </c>
@@ -18290,7 +18292,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>900</v>
       </c>
@@ -18418,7 +18420,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>907</v>
       </c>
@@ -18546,7 +18548,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>914</v>
       </c>
@@ -18674,7 +18676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>921</v>
       </c>
@@ -18802,7 +18804,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>928</v>
       </c>
@@ -18930,7 +18932,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>935</v>
       </c>
@@ -19058,7 +19060,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>942</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>949</v>
       </c>
@@ -19314,7 +19316,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>956</v>
       </c>
@@ -19442,7 +19444,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>963</v>
       </c>
@@ -19570,7 +19572,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>970</v>
       </c>
@@ -19698,7 +19700,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>977</v>
       </c>
@@ -19826,7 +19828,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>984</v>
       </c>
@@ -19954,7 +19956,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>991</v>
       </c>
@@ -20082,7 +20084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>998</v>
       </c>
@@ -20210,7 +20212,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1005</v>
       </c>
@@ -20338,7 +20340,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1012</v>
       </c>
@@ -20466,7 +20468,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1019</v>
       </c>
@@ -20594,7 +20596,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1026</v>
       </c>
@@ -20722,7 +20724,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1033</v>
       </c>
@@ -20850,7 +20852,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1040</v>
       </c>
@@ -20978,7 +20980,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1046</v>
       </c>
@@ -21106,7 +21108,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1053</v>
       </c>
@@ -21234,7 +21236,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1062</v>
       </c>
@@ -21362,7 +21364,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1069</v>
       </c>
@@ -21490,7 +21492,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1076</v>
       </c>
@@ -21618,7 +21620,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1083</v>
       </c>
@@ -21746,7 +21748,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1089</v>
       </c>
@@ -21874,7 +21876,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1096</v>
       </c>
@@ -22002,7 +22004,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1103</v>
       </c>
@@ -22130,7 +22132,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1111</v>
       </c>
@@ -22258,7 +22260,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1118</v>
       </c>
@@ -22386,7 +22388,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1125</v>
       </c>
@@ -22514,7 +22516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1131</v>
       </c>
@@ -22642,7 +22644,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1138</v>
       </c>
@@ -22770,7 +22772,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1142</v>
       </c>
@@ -22898,7 +22900,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1145</v>
       </c>
@@ -23026,7 +23028,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1154</v>
       </c>
@@ -23154,7 +23156,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1159</v>
       </c>
@@ -23282,7 +23284,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1162</v>
       </c>
@@ -23410,7 +23412,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1165</v>
       </c>
@@ -23538,7 +23540,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1172</v>
       </c>
@@ -23666,7 +23668,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1175</v>
       </c>
@@ -23794,7 +23796,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1181</v>
       </c>
@@ -23922,7 +23924,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1187</v>
       </c>
@@ -24050,7 +24052,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1191</v>
       </c>
@@ -24178,7 +24180,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1195</v>
       </c>
@@ -24306,7 +24308,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1201</v>
       </c>
@@ -24434,7 +24436,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1207</v>
       </c>
@@ -24562,7 +24564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1212</v>
       </c>
@@ -24690,7 +24692,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1219</v>
       </c>
@@ -24818,7 +24820,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1221</v>
       </c>
@@ -24946,7 +24948,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1225</v>
       </c>
@@ -25074,7 +25076,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1236</v>
       </c>
@@ -25202,7 +25204,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1242</v>
       </c>
@@ -25330,7 +25332,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1244</v>
       </c>
@@ -25458,7 +25460,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1254</v>
       </c>
@@ -25586,7 +25588,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1263</v>
       </c>
@@ -25714,7 +25716,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1271</v>
       </c>
@@ -25842,7 +25844,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1273</v>
       </c>
@@ -25970,7 +25972,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1275</v>
       </c>
@@ -26098,7 +26100,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1284</v>
       </c>
@@ -26226,7 +26228,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1293</v>
       </c>
@@ -26354,7 +26356,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1297</v>
       </c>
@@ -26482,7 +26484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1301</v>
       </c>
@@ -26610,7 +26612,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1305</v>
       </c>
@@ -26738,7 +26740,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1307</v>
       </c>
@@ -26866,7 +26868,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1311</v>
       </c>
@@ -26994,7 +26996,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1317</v>
       </c>
@@ -27122,7 +27124,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1325</v>
       </c>
@@ -27250,7 +27252,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1333</v>
       </c>
@@ -27378,7 +27380,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1339</v>
       </c>
@@ -27506,7 +27508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1341</v>
       </c>
@@ -27634,7 +27636,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1349</v>
       </c>
@@ -27762,7 +27764,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1351</v>
       </c>
@@ -27890,7 +27892,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1354</v>
       </c>
@@ -28018,7 +28020,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1361</v>
       </c>
@@ -28146,7 +28148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1363</v>
       </c>
@@ -28274,7 +28276,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1367</v>
       </c>
@@ -28402,7 +28404,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1374</v>
       </c>
@@ -28530,7 +28532,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1380</v>
       </c>
@@ -28658,7 +28660,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1387</v>
       </c>
@@ -28786,7 +28788,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1394</v>
       </c>
@@ -28914,7 +28916,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1401</v>
       </c>
@@ -29042,7 +29044,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1408</v>
       </c>
@@ -29170,7 +29172,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1415</v>
       </c>
@@ -29298,7 +29300,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1421</v>
       </c>
@@ -29426,7 +29428,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1428</v>
       </c>
@@ -29554,7 +29556,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1433</v>
       </c>
@@ -29682,7 +29684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1438</v>
       </c>
@@ -29810,7 +29812,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1445</v>
       </c>
@@ -29938,7 +29940,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1451</v>
       </c>
@@ -30066,7 +30068,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1458</v>
       </c>
@@ -30194,7 +30196,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1460</v>
       </c>
@@ -30322,7 +30324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1462</v>
       </c>
@@ -30450,7 +30452,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1465</v>
       </c>
@@ -30578,7 +30580,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1471</v>
       </c>
@@ -30706,7 +30708,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1477</v>
       </c>
@@ -30834,7 +30836,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1481</v>
       </c>
@@ -30962,7 +30964,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1487</v>
       </c>
@@ -31090,7 +31092,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1493</v>
       </c>
@@ -31218,7 +31220,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1499</v>
       </c>
@@ -31346,7 +31348,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1504</v>
       </c>
@@ -31474,7 +31476,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1509</v>
       </c>
@@ -31602,7 +31604,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1515</v>
       </c>
@@ -31730,7 +31732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1519</v>
       </c>
@@ -31858,7 +31860,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1525</v>
       </c>
@@ -31986,7 +31988,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1531</v>
       </c>
@@ -32114,7 +32116,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1537</v>
       </c>
@@ -32242,7 +32244,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1543</v>
       </c>
@@ -32370,7 +32372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1549</v>
       </c>
@@ -32498,7 +32500,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1555</v>
       </c>
@@ -32626,7 +32628,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1561</v>
       </c>
@@ -32754,7 +32756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1565</v>
       </c>
@@ -32882,7 +32884,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1571</v>
       </c>
@@ -33010,7 +33012,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1577</v>
       </c>
@@ -33138,7 +33140,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1583</v>
       </c>
@@ -33266,7 +33268,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1589</v>
       </c>
@@ -33394,7 +33396,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1595</v>
       </c>
@@ -33522,7 +33524,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1597</v>
       </c>
@@ -33650,7 +33652,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1601</v>
       </c>
@@ -33778,7 +33780,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1607</v>
       </c>
@@ -33906,7 +33908,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1611</v>
       </c>
@@ -34034,7 +34036,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1616</v>
       </c>
@@ -34162,7 +34164,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1619</v>
       </c>
@@ -34290,7 +34292,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1624</v>
       </c>
@@ -34418,7 +34420,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1627</v>
       </c>
@@ -34546,7 +34548,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1632</v>
       </c>
@@ -34674,7 +34676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1637</v>
       </c>
@@ -34802,7 +34804,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1642</v>
       </c>
@@ -34930,7 +34932,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1647</v>
       </c>
@@ -35058,7 +35060,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1652</v>
       </c>
@@ -35186,7 +35188,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1657</v>
       </c>
@@ -35314,7 +35316,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1662</v>
       </c>
@@ -35442,7 +35444,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1667</v>
       </c>
@@ -35570,7 +35572,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1672</v>
       </c>
@@ -35698,7 +35700,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1677</v>
       </c>
@@ -35826,7 +35828,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1682</v>
       </c>
@@ -35954,7 +35956,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1687</v>
       </c>
@@ -36082,7 +36084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1692</v>
       </c>
@@ -36210,7 +36212,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1695</v>
       </c>
@@ -36338,7 +36340,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1700</v>
       </c>
@@ -36466,7 +36468,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1705</v>
       </c>
@@ -36594,7 +36596,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1710</v>
       </c>
@@ -36722,7 +36724,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1715</v>
       </c>
@@ -36850,7 +36852,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1720</v>
       </c>
@@ -36978,7 +36980,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1725</v>
       </c>
@@ -37106,7 +37108,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1728</v>
       </c>
@@ -37234,7 +37236,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1731</v>
       </c>
@@ -37362,7 +37364,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1734</v>
       </c>
@@ -37490,7 +37492,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1737</v>
       </c>
@@ -37618,7 +37620,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1740</v>
       </c>
@@ -37746,7 +37748,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1742</v>
       </c>
@@ -37874,7 +37876,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1744</v>
       </c>
@@ -38002,7 +38004,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1747</v>
       </c>
@@ -38130,7 +38132,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1751</v>
       </c>
@@ -38258,7 +38260,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1755</v>
       </c>
@@ -38386,7 +38388,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1759</v>
       </c>
@@ -38514,7 +38516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1763</v>
       </c>
@@ -38642,7 +38644,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1767</v>
       </c>
@@ -38770,7 +38772,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1771</v>
       </c>
@@ -38898,7 +38900,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1775</v>
       </c>
@@ -39026,7 +39028,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1779</v>
       </c>
@@ -39154,7 +39156,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1783</v>
       </c>
@@ -39282,7 +39284,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1787</v>
       </c>
@@ -39410,7 +39412,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1791</v>
       </c>
@@ -39538,7 +39540,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1795</v>
       </c>
@@ -39666,7 +39668,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1798</v>
       </c>
@@ -39794,7 +39796,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1802</v>
       </c>
@@ -39922,7 +39924,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1806</v>
       </c>
@@ -40050,7 +40052,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1810</v>
       </c>
@@ -40178,7 +40180,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="252" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1813</v>
       </c>
@@ -40306,7 +40308,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1816</v>
       </c>
@@ -40434,7 +40436,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="254" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1818</v>
       </c>
@@ -40562,7 +40564,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="255" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1820</v>
       </c>
@@ -40690,7 +40692,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="256" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1822</v>
       </c>
@@ -40818,7 +40820,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="257" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1824</v>
       </c>
@@ -40946,7 +40948,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="258" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1826</v>
       </c>
@@ -41074,7 +41076,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="259" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1828</v>
       </c>
@@ -41202,7 +41204,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="260" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1830</v>
       </c>
@@ -41330,7 +41332,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="261" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1832</v>
       </c>
@@ -41458,7 +41460,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="262" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1834</v>
       </c>
@@ -41586,7 +41588,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="263" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1836</v>
       </c>
@@ -41714,7 +41716,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="264" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1838</v>
       </c>
@@ -41842,7 +41844,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="265" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1840</v>
       </c>
@@ -41970,7 +41972,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="266" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1842</v>
       </c>
@@ -42098,7 +42100,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="267" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1844</v>
       </c>
@@ -42226,7 +42228,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="268" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1846</v>
       </c>
@@ -42354,7 +42356,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="269" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1848</v>
       </c>
@@ -42482,7 +42484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="270" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1850</v>
       </c>
@@ -42610,7 +42612,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="271" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1852</v>
       </c>
@@ -42738,7 +42740,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="272" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1854</v>
       </c>
@@ -42866,7 +42868,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1856</v>
       </c>
@@ -42994,7 +42996,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1858</v>
       </c>
@@ -43122,7 +43124,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1860</v>
       </c>
@@ -43250,7 +43252,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1862</v>
       </c>
@@ -43378,7 +43380,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1864</v>
       </c>
@@ -43506,7 +43508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1866</v>
       </c>
@@ -43634,7 +43636,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1868</v>
       </c>
@@ -43762,7 +43764,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1870</v>
       </c>
@@ -43890,7 +43892,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1872</v>
       </c>
@@ -44018,7 +44020,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1874</v>
       </c>
@@ -44146,7 +44148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1876</v>
       </c>
@@ -44274,7 +44276,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1878</v>
       </c>
@@ -44402,7 +44404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1880</v>
       </c>
@@ -44530,7 +44532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1882</v>
       </c>
@@ -44658,7 +44660,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1884</v>
       </c>
@@ -44786,7 +44788,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1886</v>
       </c>
@@ -44914,7 +44916,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="289" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1888</v>
       </c>
@@ -45042,7 +45044,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="290" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1890</v>
       </c>
@@ -45170,7 +45172,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="291" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1892</v>
       </c>
@@ -45298,7 +45300,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="292" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1894</v>
       </c>
@@ -45426,7 +45428,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="293" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1896</v>
       </c>
@@ -45554,7 +45556,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="294" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1898</v>
       </c>
@@ -45682,7 +45684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="295" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1900</v>
       </c>
@@ -45810,7 +45812,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="296" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1902</v>
       </c>
@@ -45938,7 +45940,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="297" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1904</v>
       </c>
@@ -46066,7 +46068,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="298" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1906</v>
       </c>
@@ -46194,7 +46196,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="299" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1909</v>
       </c>
@@ -46322,7 +46324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="300" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1912</v>
       </c>
@@ -46450,7 +46452,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="301" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1915</v>
       </c>
@@ -46578,7 +46580,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="302" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1918</v>
       </c>
@@ -46706,7 +46708,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="303" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1921</v>
       </c>
@@ -46834,7 +46836,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="304" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1924</v>
       </c>
@@ -46962,7 +46964,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="305" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1927</v>
       </c>
@@ -47090,7 +47092,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="306" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1930</v>
       </c>
@@ -47218,7 +47220,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="307" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1933</v>
       </c>
@@ -47346,7 +47348,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="308" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1936</v>
       </c>
@@ -47474,7 +47476,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="309" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1939</v>
       </c>
@@ -47602,7 +47604,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="310" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1942</v>
       </c>
@@ -47730,7 +47732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="311" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1945</v>
       </c>
@@ -47858,7 +47860,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="312" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1948</v>
       </c>
@@ -47986,7 +47988,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="313" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1951</v>
       </c>
@@ -48114,7 +48116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="314" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1954</v>
       </c>
@@ -48242,7 +48244,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="315" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1957</v>
       </c>
@@ -48370,7 +48372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="316" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1960</v>
       </c>
@@ -48498,7 +48500,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="317" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1963</v>
       </c>
@@ -48626,7 +48628,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="318" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1966</v>
       </c>
@@ -48754,7 +48756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="319" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1969</v>
       </c>
@@ -48882,7 +48884,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="320" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1972</v>
       </c>
@@ -49010,7 +49012,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="321" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1975</v>
       </c>
@@ -49138,7 +49140,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="322" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1978</v>
       </c>
@@ -49266,7 +49268,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="323" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1981</v>
       </c>
@@ -49394,7 +49396,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="324" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1984</v>
       </c>
@@ -49522,7 +49524,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="325" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1987</v>
       </c>
@@ -49650,7 +49652,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="326" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1990</v>
       </c>
@@ -49778,7 +49780,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="327" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1993</v>
       </c>
@@ -49906,7 +49908,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1996</v>
       </c>
@@ -50034,7 +50036,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1999</v>
       </c>
@@ -50162,7 +50164,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>2002</v>
       </c>
@@ -50290,7 +50292,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="331" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>2005</v>
       </c>
@@ -50418,7 +50420,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="332" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>2008</v>
       </c>
@@ -50546,7 +50548,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="333" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>2011</v>
       </c>
@@ -50674,7 +50676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="334" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>2014</v>
       </c>
@@ -50802,7 +50804,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>2017</v>
       </c>
@@ -50930,7 +50932,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="336" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>2020</v>
       </c>
@@ -51058,7 +51060,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="337" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>2023</v>
       </c>
@@ -51186,7 +51188,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="338" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>2026</v>
       </c>
@@ -51314,7 +51316,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="339" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>2029</v>
       </c>
@@ -51442,7 +51444,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="340" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>2032</v>
       </c>
@@ -51570,7 +51572,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="341" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>2035</v>
       </c>
@@ -51698,7 +51700,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="342" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>2038</v>
       </c>
@@ -51826,7 +51828,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>2041</v>
       </c>
@@ -51954,7 +51956,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="344" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>2044</v>
       </c>
@@ -52082,7 +52084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="345" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>2047</v>
       </c>
@@ -52210,7 +52212,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="346" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>2050</v>
       </c>
@@ -52338,7 +52340,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="347" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>2052</v>
       </c>
@@ -52466,7 +52468,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="348" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>2055</v>
       </c>
@@ -52594,7 +52596,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="349" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>2058</v>
       </c>
@@ -52722,7 +52724,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>2061</v>
       </c>
@@ -52850,7 +52852,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="351" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>2064</v>
       </c>
@@ -52978,7 +52980,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="352" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>2067</v>
       </c>
@@ -53106,7 +53108,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="353" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>2070</v>
       </c>
@@ -53234,7 +53236,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="354" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>2073</v>
       </c>
@@ -53362,7 +53364,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="355" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>2076</v>
       </c>
@@ -53490,7 +53492,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>2079</v>
       </c>
@@ -53618,7 +53620,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="357" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>2082</v>
       </c>
@@ -53746,7 +53748,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="358" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>2085</v>
       </c>
@@ -53874,7 +53876,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>2088</v>
       </c>
@@ -54002,7 +54004,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>2090</v>
       </c>
@@ -54130,7 +54132,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>2093</v>
       </c>
@@ -54258,7 +54260,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="362" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>2096</v>
       </c>
@@ -54386,7 +54388,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="363" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>2099</v>
       </c>
@@ -54514,7 +54516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="364" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>2102</v>
       </c>
@@ -54642,7 +54644,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="365" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>2105</v>
       </c>
@@ -54770,7 +54772,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="366" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>2108</v>
       </c>
@@ -54898,7 +54900,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="367" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>2111</v>
       </c>
@@ -55026,7 +55028,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="368" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>2114</v>
       </c>
@@ -55154,7 +55156,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="369" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>2117</v>
       </c>
@@ -55282,7 +55284,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="370" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>2120</v>
       </c>
@@ -55410,7 +55412,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="371" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>2123</v>
       </c>
@@ -55538,7 +55540,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="372" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>2126</v>
       </c>
@@ -55666,7 +55668,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="373" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>2129</v>
       </c>
@@ -55794,7 +55796,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="374" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>2132</v>
       </c>
@@ -55922,7 +55924,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="375" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>2135</v>
       </c>
@@ -56050,7 +56052,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="376" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>2138</v>
       </c>
@@ -56178,7 +56180,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="377" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>2141</v>
       </c>
@@ -56306,7 +56308,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="378" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>2144</v>
       </c>
@@ -56434,7 +56436,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>2147</v>
       </c>
@@ -56562,7 +56564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>2150</v>
       </c>
@@ -56690,7 +56692,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>2153</v>
       </c>
@@ -56818,7 +56820,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>2156</v>
       </c>
@@ -56946,7 +56948,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="383" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>2159</v>
       </c>
@@ -57074,7 +57076,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="384" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>2162</v>
       </c>
@@ -57202,7 +57204,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="385" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>2165</v>
       </c>
@@ -57330,7 +57332,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="386" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>2168</v>
       </c>
@@ -57458,7 +57460,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="387" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>2171</v>
       </c>
@@ -57586,7 +57588,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="388" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>2173</v>
       </c>
@@ -57714,7 +57716,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="389" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>2175</v>
       </c>
@@ -57842,7 +57844,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="390" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>2177</v>
       </c>
@@ -57970,7 +57972,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="391" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>2179</v>
       </c>
@@ -58098,7 +58100,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="392" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>2182</v>
       </c>
@@ -58226,7 +58228,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="393" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>2185</v>
       </c>
@@ -58354,7 +58356,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="394" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>2188</v>
       </c>
@@ -58482,7 +58484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="395" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>2191</v>
       </c>
@@ -58610,7 +58612,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="396" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>2194</v>
       </c>
@@ -58738,7 +58740,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="397" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>2197</v>
       </c>
@@ -58866,7 +58868,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="398" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>2200</v>
       </c>
@@ -58994,7 +58996,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="399" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>2203</v>
       </c>
@@ -59122,7 +59124,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="400" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>2206</v>
       </c>
@@ -59250,7 +59252,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>2209</v>
       </c>
@@ -59378,7 +59380,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>2212</v>
       </c>
@@ -59506,7 +59508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>2215</v>
       </c>
@@ -59634,7 +59636,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>2218</v>
       </c>
@@ -59762,7 +59764,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>2221</v>
       </c>
@@ -59890,7 +59892,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>2224</v>
       </c>
@@ -60018,7 +60020,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>2227</v>
       </c>
@@ -60146,7 +60148,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>2230</v>
       </c>
@@ -60274,7 +60276,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>2233</v>
       </c>
@@ -60402,7 +60404,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>2236</v>
       </c>
@@ -60530,7 +60532,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>2239</v>
       </c>
@@ -60658,7 +60660,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>2242</v>
       </c>
@@ -60786,7 +60788,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>2245</v>
       </c>
@@ -60914,7 +60916,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>2248</v>
       </c>
@@ -61042,7 +61044,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>2251</v>
       </c>
@@ -61170,7 +61172,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>2254</v>
       </c>
@@ -61298,7 +61300,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="417" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>2257</v>
       </c>
@@ -61426,7 +61428,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="418" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>2260</v>
       </c>
@@ -61554,7 +61556,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="419" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>2263</v>
       </c>
@@ -61682,7 +61684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="420" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>2266</v>
       </c>
@@ -61810,7 +61812,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="421" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>2269</v>
       </c>
@@ -61938,7 +61940,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="422" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>2272</v>
       </c>
@@ -62066,7 +62068,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="423" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>2275</v>
       </c>
@@ -62194,7 +62196,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="424" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>2278</v>
       </c>
@@ -62322,7 +62324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>2281</v>
       </c>
@@ -62450,7 +62452,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="426" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>2284</v>
       </c>
@@ -62578,7 +62580,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="427" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>2287</v>
       </c>
@@ -62706,7 +62708,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="428" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>2290</v>
       </c>
@@ -62834,7 +62836,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>2293</v>
       </c>
@@ -62962,7 +62964,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="430" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>2296</v>
       </c>
@@ -63090,7 +63092,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="431" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>2299</v>
       </c>
@@ -63218,7 +63220,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="432" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>2302</v>
       </c>
@@ -63346,7 +63348,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="433" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>2305</v>
       </c>
@@ -63474,7 +63476,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="434" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>2308</v>
       </c>
@@ -63602,7 +63604,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="435" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>2311</v>
       </c>
@@ -63730,7 +63732,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="436" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>2314</v>
       </c>
@@ -63858,7 +63860,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="437" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>2317</v>
       </c>
@@ -63986,7 +63988,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="438" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>2320</v>
       </c>
@@ -64114,7 +64116,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="439" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>2323</v>
       </c>
@@ -64242,7 +64244,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="440" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>2326</v>
       </c>
@@ -64370,7 +64372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="441" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>2329</v>
       </c>
@@ -64498,7 +64500,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="442" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>2332</v>
       </c>
@@ -64626,7 +64628,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="443" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>2335</v>
       </c>
@@ -64754,7 +64756,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="444" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>2338</v>
       </c>
@@ -64882,7 +64884,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="445" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>2341</v>
       </c>
@@ -65010,7 +65012,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="446" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>2344</v>
       </c>
@@ -65138,7 +65140,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="447" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>2347</v>
       </c>
@@ -65266,7 +65268,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="448" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>2350</v>
       </c>
@@ -65394,7 +65396,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="449" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>2353</v>
       </c>
@@ -65522,7 +65524,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="450" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>2356</v>
       </c>
@@ -65650,7 +65652,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="451" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>2359</v>
       </c>
@@ -65778,7 +65780,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="452" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>2362</v>
       </c>
@@ -65906,7 +65908,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="453" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>2364</v>
       </c>
@@ -66034,7 +66036,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="454" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>2366</v>
       </c>
@@ -66162,7 +66164,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="455" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>2368</v>
       </c>
@@ -66290,7 +66292,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="456" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>2370</v>
       </c>
@@ -66418,7 +66420,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="457" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>2372</v>
       </c>
@@ -66546,7 +66548,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="458" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>2374</v>
       </c>
@@ -66674,7 +66676,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="459" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>2376</v>
       </c>
@@ -66802,7 +66804,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="460" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>2378</v>
       </c>
@@ -66930,7 +66932,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="461" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>2380</v>
       </c>
@@ -67058,7 +67060,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="462" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>2382</v>
       </c>
@@ -67186,7 +67188,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="463" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>2384</v>
       </c>
@@ -67314,7 +67316,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="464" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>2386</v>
       </c>
@@ -67442,7 +67444,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="465" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>2389</v>
       </c>
@@ -67570,7 +67572,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="466" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>2391</v>
       </c>
@@ -67698,7 +67700,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="467" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>2393</v>
       </c>
@@ -67845,7 +67847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
